--- a/back-end/Requests.xlsx
+++ b/back-end/Requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9636295B-981E-4489-8971-0ACC7C6874EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6962F3-4859-4DC5-933F-FB4EE93BBAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>BE Service</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Stats</t>
   </si>
   <si>
-    <t>stats/positive</t>
-  </si>
-  <si>
-    <t>stats/negative</t>
-  </si>
-  <si>
     <t>Market</t>
   </si>
   <si>
@@ -69,19 +63,46 @@
     <t>markets/id/categories</t>
   </si>
   <si>
-    <t>markets/id/categories/name</t>
-  </si>
-  <si>
-    <t>markets/id/categories/name/meat/id</t>
-  </si>
-  <si>
-    <t>markets/id/categories/name/meat/id/feedback</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>mar</t>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Saved</t>
+  </si>
+  <si>
+    <t>markets/id/categories/categoryID</t>
+  </si>
+  <si>
+    <t>productinmarket/marketID/productID</t>
+  </si>
+  <si>
+    <t>Product In Market</t>
+  </si>
+  <si>
+    <t>App Config</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>saved/userID/productID</t>
+  </si>
+  <si>
+    <t>saved/userID</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>feedback/meatID</t>
+  </si>
+  <si>
+    <t>product/meatID</t>
   </si>
 </sst>
 </file>
@@ -125,13 +146,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,17 +477,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E9603-68F7-4D15-97A9-F1A4E612FDFE}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
@@ -472,7 +502,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -483,7 +513,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -492,18 +522,20 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -512,76 +544,110 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/back-end/Requests.xlsx
+++ b/back-end/Requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\MESTRADO\2 semestre\Aplicações em Web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6962F3-4859-4DC5-933F-FB4EE93BBAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6118755-93DF-45F6-A845-AC7F677D269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="2940" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>BE Service</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>product/meatID</t>
+  </si>
+  <si>
+    <t>user/userID</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,13 +158,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,17 +480,17 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +501,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -512,8 +512,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -521,8 +521,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -532,8 +532,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -543,8 +543,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -552,8 +552,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -561,8 +561,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -570,8 +570,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -581,8 +581,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
@@ -592,8 +592,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
@@ -603,8 +603,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -612,8 +612,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
@@ -623,8 +623,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -632,12 +632,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>

--- a/back-end/Requests.xlsx
+++ b/back-end/Requests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\MESTRADO\2 semestre\Aplicações em Web\aw-project\back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6118755-93DF-45F6-A845-AC7F677D269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0EBE0-9849-4BA2-A0C9-B6323E2AC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>BE Service</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>user/userID</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>appconfig</t>
   </si>
 </sst>
 </file>
@@ -181,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E9603-68F7-4D15-97A9-F1A4E612FDFE}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,17 +649,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/back-end/Requests.xlsx
+++ b/back-end/Requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\MESTRADO\2 semestre\Aplicações em Web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0EBE0-9849-4BA2-A0C9-B6323E2AC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260621-23CC-4918-90A9-83C944091480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>news/trending</t>
   </si>
   <si>
-    <t>news/id</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>markets</t>
   </si>
   <si>
-    <t>markets/id</t>
-  </si>
-  <si>
-    <t>markets/id/categories</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>Saved</t>
   </si>
   <si>
-    <t>markets/id/categories/categoryID</t>
-  </si>
-  <si>
-    <t>productinmarket/marketID/productID</t>
-  </si>
-  <si>
     <t>Product In Market</t>
   </si>
   <si>
@@ -87,31 +72,46 @@
     <t>User</t>
   </si>
   <si>
-    <t>saved/userID/productID</t>
-  </si>
-  <si>
-    <t>saved/userID</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
     <t>stats</t>
   </si>
   <si>
-    <t>feedback/meatID</t>
-  </si>
-  <si>
-    <t>product/meatID</t>
-  </si>
-  <si>
-    <t>user/userID</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>appconfig</t>
+  </si>
+  <si>
+    <t>productinmarket/{marketID}/{productID}</t>
+  </si>
+  <si>
+    <t>product/{meatID}</t>
+  </si>
+  <si>
+    <t>feedback/{meatID}</t>
+  </si>
+  <si>
+    <t>saved/{userID}/{productID}</t>
+  </si>
+  <si>
+    <t>saved/{userID}</t>
+  </si>
+  <si>
+    <t>user/{userID}</t>
+  </si>
+  <si>
+    <t>news/{news_id}</t>
+  </si>
+  <si>
+    <t>markets/{market_id}</t>
+  </si>
+  <si>
+    <t>markets/{market_id}/categories</t>
+  </si>
+  <si>
+    <t>markets/{market_id}/categories/{categoryID}</t>
   </si>
 </sst>
 </file>
@@ -187,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,15 +485,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E9603-68F7-4D15-97A9-F1A4E612FDFE}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -524,29 +524,29 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -573,60 +573,60 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -635,38 +635,38 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/Requests.xlsx
+++ b/back-end/Requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\MESTRADO\2 semestre\Aplicações em Web\aw-project\back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260621-23CC-4918-90A9-83C944091480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB5DC8-99C6-4AD5-8693-35534C6BE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="4215" yWindow="1800" windowWidth="21630" windowHeight="11310" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>BE Service</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>feedback/{meatID}</t>
-  </si>
-  <si>
-    <t>saved/{userID}/{productID}</t>
   </si>
   <si>
     <t>saved/{userID}</t>
@@ -187,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E9603-68F7-4D15-97A9-F1A4E612FDFE}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -555,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -564,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -646,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
